--- a/utils/excel/export_clinician_patients_data.xlsx
+++ b/utils/excel/export_clinician_patients_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>First Name</t>
   </si>
@@ -34,76 +34,25 @@
     <t>Date Added</t>
   </si>
   <si>
-    <t>Fhillip</t>
+    <t>Jane</t>
   </si>
   <si>
-    <t>Bagsics</t>
+    <t>Doe Sample Client</t>
   </si>
   <si>
-    <t>fhillipbagsic1@gmail.com</t>
+    <t>mideth.b.abisado@gmail.com</t>
   </si>
   <si>
-    <t>09123456785</t>
+    <t>09190955074</t>
   </si>
   <si>
-    <t>fhillipbagsics1</t>
+    <t>samplejanedoe</t>
   </si>
   <si>
-    <t>fhillipbgsc1@gmail.com</t>
+    <t>jonathan.procter@gmail.com</t>
   </si>
   <si>
-    <t>Fri Jun 24 2022 18:23:30 GMT+0800 (Philippine Standard Time)</t>
-  </si>
-  <si>
-    <t>Chika</t>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>chikana@gmail.com</t>
-  </si>
-  <si>
-    <t>09586345556</t>
-  </si>
-  <si>
-    <t>chikanana1!</t>
-  </si>
-  <si>
-    <t>Sun Jul 10 2022 08:59:15 GMT+0800 (Philippine Standard Time)</t>
-  </si>
-  <si>
-    <t>Heli</t>
-  </si>
-  <si>
-    <t>Kapter</t>
-  </si>
-  <si>
-    <t>heli</t>
-  </si>
-  <si>
-    <t>034928</t>
-  </si>
-  <si>
-    <t>Sun Jul 10 2022 10:50:25 GMT+0800 (Philippine Standard Time)</t>
-  </si>
-  <si>
-    <t>Tanjiro</t>
-  </si>
-  <si>
-    <t>Kamado</t>
-  </si>
-  <si>
-    <t>kamadoTanjiro@gmail.com</t>
-  </si>
-  <si>
-    <t>09457346754</t>
-  </si>
-  <si>
-    <t>Tanjiro2020!</t>
-  </si>
-  <si>
-    <t>Tue Jul 12 2022 13:27:36 GMT+0800 (Philippine Standard Time)</t>
+    <t>Sun Jul 17 2022 00:36:14 GMT+0000 (Coordinated Universal Time)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -203,75 +152,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
